--- a/data/data_10-9-14.xlsx
+++ b/data/data_10-9-14.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data_924.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_924.csv!$A$1:$H$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_924.csv!$A$1:$H$149</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="318">
   <si>
     <t>Country</t>
   </si>
@@ -921,9 +921,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>ZWE¾</t>
-  </si>
-  <si>
     <t>Swing state based on non-OECD, FOC, EU membership status &amp; Against the ITRs</t>
   </si>
   <si>
@@ -958,13 +955,34 @@
   </si>
   <si>
     <t>Swing state based on indicators. Top 15 in 9/12 indicators.</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MAL</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>ZWE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -976,6 +994,22 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -995,14 +1029,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1332,14 +1370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1371,10 +1410,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1382,48 +1421,51 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1440,10 +1482,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1451,114 +1493,120 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1578,10 +1626,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1589,22 +1637,22 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>10</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="G11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1612,22 +1660,22 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>0</v>
+      <c r="G12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1635,28 +1683,28 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>10</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>0</v>
+      <c r="G13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1665,38 +1713,41 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1704,22 +1755,22 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="E16" t="s">
+        <v>10</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>0</v>
+      <c r="G16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1727,22 +1778,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="E17" t="s">
+        <v>10</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17">
-        <v>0</v>
+      <c r="G17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1750,137 +1801,143 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" t="s">
+        <v>10</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>0</v>
+      <c r="G18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>10</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>0</v>
+      <c r="G21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="E23" t="s">
+        <v>10</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
-        <v>0</v>
+      <c r="G23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1888,22 +1945,22 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="E24" t="s">
+        <v>10</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
-        <v>0</v>
+      <c r="G24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>299</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1911,54 +1968,51 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>10</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
-        <v>0</v>
+      <c r="G25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1967,76 +2021,67 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>301</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>301</v>
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>302</v>
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>67</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2045,47 +2090,41 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>302</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2097,44 +2136,41 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>305</v>
+      <c r="G33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2149,174 +2185,156 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>306</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>3</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>307</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>308</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>300</v>
+      <c r="G40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2334,47 +2352,44 @@
         <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2382,115 +2397,100 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>306</v>
+      <c r="G43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>300</v>
+      <c r="G47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16">
@@ -2516,41 +2516,41 @@
         <v>4</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2559,53 +2559,50 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>4</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2613,65 +2610,62 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>300</v>
+      <c r="G52" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53">
-        <v>0</v>
+      <c r="E53" t="s">
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54">
-        <v>0</v>
+      <c r="E54" t="s">
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2691,13 +2685,13 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2714,105 +2708,108 @@
     </row>
     <row r="57" spans="1:8" ht="16">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>5</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2832,10 +2829,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2855,10 +2852,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2878,56 +2875,59 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64">
-        <v>0</v>
+      <c r="E64" t="s">
+        <v>10</v>
       </c>
       <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2947,105 +2947,108 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" t="s">
-        <v>59</v>
+        <v>147</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3054,18 +3057,18 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3085,13 +3088,13 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3100,70 +3103,67 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74">
-        <v>0</v>
+      <c r="E74" t="s">
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
       </c>
       <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>5</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3172,18 +3172,18 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3191,8 +3191,8 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77">
-        <v>0</v>
+      <c r="E77" t="s">
+        <v>10</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3224,12 +3224,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3260,68 +3260,71 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80">
-        <v>0</v>
+      <c r="E80" t="s">
+        <v>10</v>
       </c>
       <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="E82">
-        <v>0</v>
+      <c r="E82" t="s">
+        <v>10</v>
       </c>
       <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="16">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3339,41 +3342,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84">
-        <v>0</v>
+      <c r="E84" t="s">
+        <v>10</v>
       </c>
       <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3382,61 +3385,70 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="16">
+        <v>4</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3453,1002 +3465,1027 @@
       <c r="G88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16">
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="16">
+      <c r="A114" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>4</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16">
+      <c r="A116" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="16">
+      <c r="A120" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16">
+      <c r="A121" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>250</v>
+      </c>
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
         <v>256</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B128" t="s">
         <v>257</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
         <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>258</v>
-      </c>
-      <c r="B90" t="s">
-        <v>259</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>282</v>
-      </c>
-      <c r="B91" t="s">
-        <v>283</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>286</v>
-      </c>
-      <c r="B92" t="s">
-        <v>287</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" t="s">
-        <v>28</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>29</v>
-      </c>
-      <c r="B96" t="s">
-        <v>30</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="16">
-      <c r="A97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B97" t="s">
-        <v>32</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>39</v>
-      </c>
-      <c r="B99" t="s">
-        <v>40</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="16">
-      <c r="A100" t="s">
-        <v>41</v>
-      </c>
-      <c r="B100" t="s">
-        <v>42</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="16">
-      <c r="A101" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>51</v>
-      </c>
-      <c r="B102" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
-        <v>53</v>
-      </c>
-      <c r="B103" t="s">
-        <v>54</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
-        <v>55</v>
-      </c>
-      <c r="B104" t="s">
-        <v>56</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
-        <v>62</v>
-      </c>
-      <c r="B105" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B106" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" t="s">
-        <v>72</v>
-      </c>
-      <c r="B107" t="s">
-        <v>73</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
-        <v>86</v>
-      </c>
-      <c r="B108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" t="s">
-        <v>92</v>
-      </c>
-      <c r="B109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
-        <v>100</v>
-      </c>
-      <c r="B110" t="s">
-        <v>101</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="16">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="16">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
-        <v>134</v>
-      </c>
-      <c r="B114" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s">
-        <v>148</v>
-      </c>
-      <c r="B115" t="s">
-        <v>149</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
-        <v>152</v>
-      </c>
-      <c r="B116" t="s">
-        <v>153</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="16">
-      <c r="A117" t="s">
-        <v>154</v>
-      </c>
-      <c r="B117" t="s">
-        <v>155</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="16">
-      <c r="A118" t="s">
-        <v>156</v>
-      </c>
-      <c r="B118" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" t="s">
-        <v>158</v>
-      </c>
-      <c r="B119" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>166</v>
-      </c>
-      <c r="B120" t="s">
-        <v>167</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
-        <v>170</v>
-      </c>
-      <c r="B121" t="s">
-        <v>171</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" t="s">
-        <v>178</v>
-      </c>
-      <c r="B122" t="s">
-        <v>179</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" t="s">
-        <v>180</v>
-      </c>
-      <c r="B123" t="s">
-        <v>181</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" t="s">
-        <v>184</v>
-      </c>
-      <c r="B124" t="s">
-        <v>185</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" t="s">
-        <v>190</v>
-      </c>
-      <c r="B125" t="s">
-        <v>191</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" t="s">
-        <v>202</v>
-      </c>
-      <c r="B126" t="s">
-        <v>203</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" t="s">
-        <v>204</v>
-      </c>
-      <c r="B127" t="s">
-        <v>205</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" t="s">
-        <v>216</v>
-      </c>
-      <c r="B128" t="s">
-        <v>217</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
-      <c r="E129" t="s">
-        <v>10</v>
+      <c r="E129">
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="C130" t="s">
+        <v>59</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
-      <c r="E130" t="s">
-        <v>10</v>
+      <c r="E130">
+        <v>1</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
-      <c r="G130" t="s">
-        <v>10</v>
+      <c r="G130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
+        <v>263</v>
+      </c>
+      <c r="C131" t="s">
+        <v>59</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
-      <c r="E131" t="s">
-        <v>10</v>
+      <c r="E131">
+        <v>1</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
-      <c r="G131" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="16">
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="B132" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -4456,8 +4493,8 @@
       <c r="D132">
         <v>0</v>
       </c>
-      <c r="E132" t="s">
-        <v>10</v>
+      <c r="E132">
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -4466,12 +4503,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="16">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -4491,10 +4528,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B134" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -4502,8 +4539,8 @@
       <c r="D134">
         <v>0</v>
       </c>
-      <c r="E134">
-        <v>0</v>
+      <c r="E134" t="s">
+        <v>10</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -4512,81 +4549,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" ht="16">
       <c r="A135" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>2</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="16">
       <c r="A136" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B137" t="s">
-        <v>255</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="C137" t="s">
+        <v>59</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
-      <c r="E137" t="s">
-        <v>10</v>
+      <c r="E137">
+        <v>1</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
-      <c r="G137" t="s">
-        <v>10</v>
+      <c r="G137">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -4594,8 +4637,8 @@
       <c r="D138">
         <v>0</v>
       </c>
-      <c r="E138">
-        <v>0</v>
+      <c r="E138" t="s">
+        <v>10</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4606,10 +4649,10 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -4617,8 +4660,8 @@
       <c r="D139">
         <v>0</v>
       </c>
-      <c r="E139" t="s">
-        <v>10</v>
+      <c r="E139">
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4629,10 +4672,10 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B140" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4640,45 +4683,45 @@
       <c r="D140">
         <v>0</v>
       </c>
-      <c r="E140" t="s">
-        <v>10</v>
+      <c r="E140">
+        <v>1</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
-      <c r="G140" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="16">
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
-      <c r="E141" t="s">
-        <v>10</v>
+      <c r="E141">
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B142" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4686,8 +4729,8 @@
       <c r="D142">
         <v>0</v>
       </c>
-      <c r="E142">
-        <v>0</v>
+      <c r="E142" t="s">
+        <v>10</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4698,28 +4741,28 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
-      <c r="E143" t="s">
-        <v>10</v>
+      <c r="E143">
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="16">
       <c r="A144" t="s">
         <v>288</v>
       </c>
@@ -4730,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -4738,19 +4781,19 @@
       <c r="F144">
         <v>0</v>
       </c>
-      <c r="G144" t="s">
-        <v>10</v>
+      <c r="G144">
+        <v>3</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B145" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -4759,45 +4802,115 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
-      <c r="G145" t="s">
-        <v>10</v>
+      <c r="G145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
         <v>296</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B148" t="s">
         <v>297</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146" t="s">
-        <v>10</v>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149" t="s">
+        <v>317</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H146">
+  <autoFilter ref="A1:H149">
     <sortState ref="A2:H146">
-      <sortCondition ref="G1:G146"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
